--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>005125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>华宝标普中国A股红利机会指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.27</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005125</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数C</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.45</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009908</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>湘财长泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -2062,12 +2062,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.08</v>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.08</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.2</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2687,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6534</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,623 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4648</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.449999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0587</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1082,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1143,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>138.99</t>
+          <t>178.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>97.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1273</t>
+          <t>4.6817</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1171,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.8356</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1209,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.7488</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1247,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>004702</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>南方金融主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0162</t>
+          <t>0.7030</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1285,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>013500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>南方金融主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.6534</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1323,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>217002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>招商安泰平衡混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.3084</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1361,36 +867,340 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>002317</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>招商睿逸稳健配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>46.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0.66</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,7 +1235,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1455,36 +1265,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>84.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0949</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1493,36 +1303,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>009937</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>东方欣益一年持有期偏债混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.34</t>
+          <t>31.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0603</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1531,36 +1341,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>014125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>华夏中证1000指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1569,36 +1379,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1607,36 +1417,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2099,36 +2099,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0949</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2137,36 +2137,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>31.18</t>
+          <t>98.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2175,36 +2175,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014125</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2213,36 +2213,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014126</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强C</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2251,226 +2251,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001273</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>68.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001274</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银新动力灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,7 +2315,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2545,26 +2355,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>178.69</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6817</t>
+          <t>3.1273</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2573,36 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8356</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2611,32 +2421,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009837</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合A</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>96.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7488</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2649,36 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004702</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>98.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7030</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2687,36 +2497,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013500</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方金融主题灵活配置混合C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6534</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2725,36 +2535,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>217002</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安泰平衡混合</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47.79</t>
+          <t>80.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3084</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2763,340 +2573,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002317</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商睿逸稳健配置混合</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>46.28</t>
+          <t>80.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2079</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012963</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商稳健平衡混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014014</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商臻选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012964</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商稳健平衡混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>69.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013759</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>69.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009838</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏磐锐一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商臻选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>69.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013760</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>69.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3110,128 +2616,622 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.449999999999999</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>5.08</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.45</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>8.449999999999999</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.45</v>
       </c>
     </row>
@@ -583,6 +600,934 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1644,7 +2589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2042,7 +2987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2288,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600395-盘江股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>7.6</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>8.449999999999999</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.45</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2987,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3233,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3555,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
